--- a/stats.xlsx
+++ b/stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="8775" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="8775"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L646"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9682,7 +9682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
